--- a/backend/data.xlsx
+++ b/backend/data.xlsx
@@ -1,42 +1,202 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AliMunishiApp\backend\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52CA918D-E913-44C9-97E6-89C79D3E1217}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="28680" yWindow="-30" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="consumers" sheetId="1" r:id="rId1"/>
     <sheet name="readings" sheetId="2" r:id="rId2"/>
+    <sheet name="users" sheetId="3" r:id="rId3"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="56">
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>surname</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>Ali</t>
+  </si>
+  <si>
+    <t>Munishi</t>
+  </si>
+  <si>
+    <t>Amviseri</t>
+  </si>
+  <si>
+    <t>Bogovine</t>
+  </si>
+  <si>
+    <t>Gzim</t>
+  </si>
+  <si>
+    <t>Ibraimi</t>
+  </si>
+  <si>
+    <t>Lugina</t>
+  </si>
+  <si>
+    <t>Sara</t>
+  </si>
+  <si>
+    <t>Hoti</t>
+  </si>
+  <si>
+    <t>101 pn</t>
+  </si>
+  <si>
+    <t>Sali</t>
+  </si>
+  <si>
+    <t>Biznes</t>
+  </si>
+  <si>
+    <t>Lugina13</t>
+  </si>
+  <si>
+    <t>Dorart</t>
+  </si>
+  <si>
+    <t>Lugina5</t>
+  </si>
+  <si>
+    <t>Aliu</t>
+  </si>
+  <si>
+    <t>Test2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arbresh </t>
+  </si>
+  <si>
+    <t>Ukshini</t>
+  </si>
+  <si>
+    <t>Shkup</t>
+  </si>
+  <si>
+    <t>Jasin</t>
+  </si>
+  <si>
+    <t>Jakupi</t>
+  </si>
+  <si>
+    <t>Fisnik</t>
+  </si>
+  <si>
+    <t>Arbreshi</t>
+  </si>
+  <si>
+    <t>unik</t>
+  </si>
+  <si>
+    <t>Lugina10</t>
+  </si>
+  <si>
+    <t>Ajan</t>
+  </si>
+  <si>
+    <t>consumerId</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>previousReading</t>
+  </si>
+  <si>
+    <t>currentReading</t>
+  </si>
+  <si>
+    <t>consumption</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>2025-06-13T08:57:56.974Z</t>
+  </si>
+  <si>
+    <t>2025-06-13T08:58:19.293Z</t>
+  </si>
+  <si>
+    <t>2025-06-13T08:58:48.662Z</t>
+  </si>
+  <si>
+    <t>2025-06-13T09:01:02.514Z</t>
+  </si>
+  <si>
+    <t>2025-06-13T09:03:29.558Z</t>
+  </si>
+  <si>
+    <t>2025-06-13T09:05:41.418Z</t>
+  </si>
+  <si>
+    <t>2025-06-16T07:47:45.516Z</t>
+  </si>
+  <si>
+    <t>2025-06-16T07:54:54.237Z</t>
+  </si>
+  <si>
+    <t>2025-06-16T08:36:24.270Z</t>
+  </si>
+  <si>
+    <t>2025-06-16T08:48:01.195Z</t>
+  </si>
+  <si>
+    <t>2025-06-16T09:57:35.467Z</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>role</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>user123</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>admin123</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -66,13 +226,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -397,520 +565,606 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>id</v>
-      </c>
-      <c r="B1" t="str">
-        <v>name</v>
-      </c>
-      <c r="C1" t="str">
-        <v>surname</v>
-      </c>
-      <c r="D1" t="str">
-        <v>type</v>
-      </c>
-      <c r="E1" t="str">
-        <v>address</v>
-      </c>
-    </row>
-    <row r="2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="str">
-        <v>Ali</v>
-      </c>
-      <c r="C2" t="str">
-        <v>Munishi</v>
-      </c>
-      <c r="D2" t="str">
-        <v>Amviseri</v>
-      </c>
-      <c r="E2" t="str">
-        <v>Bogovine</v>
-      </c>
-    </row>
-    <row r="3">
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="str">
-        <v>Gzim</v>
-      </c>
-      <c r="C3" t="str">
-        <v>Ibraimi</v>
-      </c>
-      <c r="D3" t="str">
-        <v>Amviseri</v>
-      </c>
-      <c r="E3" t="str">
-        <v>Lugina</v>
-      </c>
-    </row>
-    <row r="4">
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="str">
-        <v>Sara</v>
-      </c>
-      <c r="C4" t="str">
-        <v>Hoti</v>
-      </c>
-      <c r="D4" t="str">
-        <v>Amviseri</v>
-      </c>
-      <c r="E4" t="str">
-        <v>101 pn</v>
-      </c>
-    </row>
-    <row r="5">
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="str">
-        <v>Gzim</v>
-      </c>
-      <c r="C5" t="str">
-        <v>Sali</v>
-      </c>
-      <c r="D5" t="str">
-        <v>Biznes</v>
-      </c>
-      <c r="E5" t="str">
-        <v>Lugina13</v>
-      </c>
-    </row>
-    <row r="6">
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>18</v>
       </c>
-      <c r="B6" t="str">
-        <v>Dorart</v>
-      </c>
-      <c r="C6" t="str">
-        <v>Ibraimi</v>
-      </c>
-      <c r="D6" t="str">
-        <v>Biznes</v>
-      </c>
-      <c r="E6" t="str">
-        <v>Lugina5</v>
-      </c>
-    </row>
-    <row r="7">
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>19</v>
       </c>
-      <c r="B7" t="str">
-        <v>Ali</v>
-      </c>
-      <c r="C7" t="str">
-        <v>Aliu</v>
-      </c>
-      <c r="D7" t="str">
-        <v>Biznes</v>
-      </c>
-      <c r="E7" t="str">
-        <v>Test2</v>
-      </c>
-    </row>
-    <row r="8">
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>20</v>
       </c>
-      <c r="B8" t="str">
-        <v xml:space="preserve">Arbresh </v>
-      </c>
-      <c r="C8" t="str">
-        <v>Ukshini</v>
-      </c>
-      <c r="D8" t="str">
-        <v>Amviseri</v>
-      </c>
-      <c r="E8" t="str">
-        <v>Shkup</v>
-      </c>
-    </row>
-    <row r="9">
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>21</v>
       </c>
-      <c r="B9" t="str">
-        <v xml:space="preserve">Arbresh </v>
-      </c>
-      <c r="C9" t="str">
-        <v>Ukshini</v>
-      </c>
-      <c r="D9" t="str">
-        <v>Amviseri</v>
-      </c>
-      <c r="E9" t="str">
-        <v>Shkup</v>
-      </c>
-    </row>
-    <row r="10">
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>22</v>
       </c>
-      <c r="B10" t="str">
-        <v xml:space="preserve">Arbresh </v>
-      </c>
-      <c r="C10" t="str">
-        <v>Ukshini</v>
-      </c>
-      <c r="D10" t="str">
-        <v>Amviseri</v>
-      </c>
-      <c r="E10" t="str">
-        <v>Shkup</v>
-      </c>
-    </row>
-    <row r="11">
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>23</v>
       </c>
-      <c r="B11" t="str">
-        <v>Jasin</v>
-      </c>
-      <c r="C11" t="str">
-        <v>Jakupi</v>
-      </c>
-      <c r="D11" t="str">
-        <v>Amviseri</v>
-      </c>
-      <c r="E11" t="str">
-        <v>Shkup</v>
-      </c>
-    </row>
-    <row r="12">
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>24</v>
       </c>
-      <c r="B12" t="str">
-        <v>Fisnik</v>
-      </c>
-      <c r="C12" t="str">
-        <v>Arbreshi</v>
-      </c>
-      <c r="D12" t="str">
-        <v>Amviseri</v>
-      </c>
-      <c r="E12" t="str">
-        <v>Shkup</v>
-      </c>
-    </row>
-    <row r="13">
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>25</v>
       </c>
-      <c r="B13" t="str">
-        <v>unik</v>
-      </c>
-      <c r="C13" t="str">
-        <v>Ibraimi</v>
-      </c>
-      <c r="D13" t="str">
-        <v>Amviseri</v>
-      </c>
-      <c r="E13" t="str">
-        <v>Lugina10</v>
-      </c>
-    </row>
-    <row r="14">
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>26</v>
       </c>
-      <c r="B14" t="str">
-        <v>Ajan</v>
-      </c>
-      <c r="C14" t="str">
-        <v>Aliu</v>
-      </c>
-      <c r="D14" t="str">
-        <v>Biznes</v>
-      </c>
-      <c r="E14" t="str">
-        <v>Bogovine</v>
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E14"/>
+    <ignoredError sqref="A1:E14" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:A12"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>id</v>
-      </c>
-      <c r="B1" t="str">
-        <v>consumerId</v>
-      </c>
-      <c r="C1" t="str">
-        <v>date</v>
-      </c>
-      <c r="D1" t="str">
-        <v>previousReading</v>
-      </c>
-      <c r="E1" t="str">
-        <v>currentReading</v>
-      </c>
-      <c r="F1" t="str">
-        <v>consumption</v>
-      </c>
-      <c r="G1" t="str">
-        <v>total</v>
-      </c>
-    </row>
-    <row r="2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>45444</v>
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>38</v>
       </c>
       <c r="D2">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>130</v>
+        <v>653</v>
       </c>
       <c r="F2">
-        <v>10</v>
+        <v>653</v>
       </c>
       <c r="G2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>326.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>45474</v>
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>39</v>
       </c>
       <c r="D3">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>145</v>
+        <v>653</v>
       </c>
       <c r="F3">
-        <v>15</v>
+        <v>653</v>
       </c>
       <c r="G3">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>326.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
-      <c r="C4">
-        <v>45444</v>
+      <c r="C4" t="s">
+        <v>40</v>
       </c>
       <c r="D4">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>210</v>
+        <v>653</v>
       </c>
       <c r="F4">
-        <v>10</v>
+        <v>653</v>
       </c>
       <c r="G4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>326.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5">
-        <v>45820</v>
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>41</v>
       </c>
       <c r="D5">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="F5">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="G5">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>20</v>
-      </c>
-      <c r="C6" t="str">
-        <v>2025-06-13T08:57:56.974Z</v>
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>42</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>653</v>
+        <v>110</v>
       </c>
       <c r="F6">
-        <v>653</v>
+        <v>110</v>
       </c>
       <c r="G6">
-        <v>326.5</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>20</v>
-      </c>
-      <c r="C7" t="str">
-        <v>2025-06-13T08:58:19.293Z</v>
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>43</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>653</v>
+        <v>65</v>
       </c>
       <c r="F7">
-        <v>653</v>
+        <v>65</v>
       </c>
       <c r="G7">
-        <v>326.5</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8" t="str">
-        <v>2025-06-13T08:58:48.662Z</v>
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>44</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>653</v>
+        <v>123</v>
       </c>
       <c r="F8">
-        <v>653</v>
+        <v>123</v>
       </c>
       <c r="G8">
-        <v>326.5</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>61.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>23</v>
-      </c>
-      <c r="C9" t="str">
-        <v>2025-06-13T09:01:02.514Z</v>
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>45</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>120</v>
+        <v>951</v>
       </c>
       <c r="F9">
-        <v>120</v>
+        <v>951</v>
       </c>
       <c r="G9">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>475.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>23</v>
-      </c>
-      <c r="C10" t="str">
-        <v>2025-06-13T09:03:29.558Z</v>
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>46</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>110</v>
+        <v>325</v>
       </c>
       <c r="F10">
-        <v>110</v>
+        <v>325</v>
       </c>
       <c r="G10">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>162.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>26</v>
-      </c>
-      <c r="C11" t="str">
-        <v>2025-06-13T09:05:41.418Z</v>
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>47</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>951</v>
       </c>
       <c r="E11">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="F11">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="G11">
-        <v>78</v>
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12">
+        <v>1000</v>
+      </c>
+      <c r="E12">
+        <v>655487</v>
+      </c>
+      <c r="F12">
+        <v>654487</v>
+      </c>
+      <c r="G12">
+        <v>327243.5</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G11"/>
+    <ignoredError sqref="A1:G1 B5:G12 B2:G2 B3:G3 B4:G4" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B301599-6916-41B6-B333-B9E3E18A25A0}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/backend/data.xlsx
+++ b/backend/data.xlsx
@@ -399,7 +399,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -1067,16 +1067,33 @@
         <v>rr. 101 pn</v>
       </c>
     </row>
+    <row r="40">
+      <c r="A40">
+        <v>28</v>
+      </c>
+      <c r="B40" t="str">
+        <v>Test1</v>
+      </c>
+      <c r="C40" t="str">
+        <v>Test2</v>
+      </c>
+      <c r="D40" t="str">
+        <v>Amviseri</v>
+      </c>
+      <c r="E40" t="str">
+        <v>rrrr</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E39"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E40"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -1242,9 +1259,32 @@
         <v>99.5</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" t="str">
+        <v>2025-06-17T09:06:04.199Z</v>
+      </c>
+      <c r="D8">
+        <v>153</v>
+      </c>
+      <c r="E8">
+        <v>174</v>
+      </c>
+      <c r="F8">
+        <v>21</v>
+      </c>
+      <c r="G8">
+        <v>10.5</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G7"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G8"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/backend/data.xlsx
+++ b/backend/data.xlsx
@@ -1093,7 +1093,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -1282,9 +1282,170 @@
         <v>10.5</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9" t="str">
+        <v>2025-06-17T10:48:25.637Z</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>23</v>
+      </c>
+      <c r="F9">
+        <v>23</v>
+      </c>
+      <c r="G9">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10" t="str">
+        <v>2025-06-17T10:48:32.842Z</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>52</v>
+      </c>
+      <c r="F10">
+        <v>52</v>
+      </c>
+      <c r="G10">
+        <v>62.4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>25</v>
+      </c>
+      <c r="C11" t="str">
+        <v>2025-06-17T10:48:38.621Z</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>74</v>
+      </c>
+      <c r="F11">
+        <v>74</v>
+      </c>
+      <c r="G11">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>21</v>
+      </c>
+      <c r="C12" t="str">
+        <v>2025-06-17T10:48:56.958Z</v>
+      </c>
+      <c r="D12">
+        <v>199</v>
+      </c>
+      <c r="E12">
+        <v>207</v>
+      </c>
+      <c r="F12">
+        <v>8</v>
+      </c>
+      <c r="G12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>22</v>
+      </c>
+      <c r="C13" t="str">
+        <v>2025-06-17T10:49:02.956Z</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>63</v>
+      </c>
+      <c r="F13">
+        <v>63</v>
+      </c>
+      <c r="G13">
+        <v>31.5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>26</v>
+      </c>
+      <c r="C14" t="str">
+        <v>2025-06-17T10:49:09.165Z</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>56</v>
+      </c>
+      <c r="F14">
+        <v>56</v>
+      </c>
+      <c r="G14">
+        <v>67.2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>26</v>
+      </c>
+      <c r="C15" t="str">
+        <v>2025-06-17T10:49:44.465Z</v>
+      </c>
+      <c r="D15">
+        <v>56</v>
+      </c>
+      <c r="E15">
+        <v>74</v>
+      </c>
+      <c r="F15">
+        <v>18</v>
+      </c>
+      <c r="G15">
+        <v>21.599999999999998</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G8"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G15"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/backend/data.xlsx
+++ b/backend/data.xlsx
@@ -1,43 +1,466 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AliMunishiApp\backend\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCC83C65-B191-45F0-9F67-1727AAA1BD5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="consumers" sheetId="1" r:id="rId1"/>
     <sheet name="readings" sheetId="2" r:id="rId2"/>
-    <sheet name="users" sheetId="3" r:id="rId3"/>
+    <sheet name="login" sheetId="3" r:id="rId3"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="144">
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>surname</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>Ali</t>
+  </si>
+  <si>
+    <t>Munishi</t>
+  </si>
+  <si>
+    <t>Amviseri</t>
+  </si>
+  <si>
+    <t>Bogovine</t>
+  </si>
+  <si>
+    <t>Gzim</t>
+  </si>
+  <si>
+    <t>Ibraimi</t>
+  </si>
+  <si>
+    <t>Lugina</t>
+  </si>
+  <si>
+    <t>Sara</t>
+  </si>
+  <si>
+    <t>Hoti</t>
+  </si>
+  <si>
+    <t>101 pn</t>
+  </si>
+  <si>
+    <t>Sali</t>
+  </si>
+  <si>
+    <t>Biznes</t>
+  </si>
+  <si>
+    <t>Lugina/13</t>
+  </si>
+  <si>
+    <t>Dorart</t>
+  </si>
+  <si>
+    <t>Lugina/5</t>
+  </si>
+  <si>
+    <t>Aliu</t>
+  </si>
+  <si>
+    <t>Qender</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arbresh </t>
+  </si>
+  <si>
+    <t>Ukshini</t>
+  </si>
+  <si>
+    <t>rr. 101 nr 12</t>
+  </si>
+  <si>
+    <t>Arta</t>
+  </si>
+  <si>
+    <t>Bilalli</t>
+  </si>
+  <si>
+    <t>rr. 101 nr.156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Artan </t>
+  </si>
+  <si>
+    <t>Sinani</t>
+  </si>
+  <si>
+    <t>Rruga e re pn</t>
+  </si>
+  <si>
+    <t>Jasin</t>
+  </si>
+  <si>
+    <t>Jakupi</t>
+  </si>
+  <si>
+    <t>Mehalla e re</t>
+  </si>
+  <si>
+    <t>Fisnik</t>
+  </si>
+  <si>
+    <t>Arbreshi</t>
+  </si>
+  <si>
+    <t>Rr. 101 nr 211</t>
+  </si>
+  <si>
+    <t>Unik</t>
+  </si>
+  <si>
+    <t>Lugina/10</t>
+  </si>
+  <si>
+    <t>Ajan</t>
+  </si>
+  <si>
+    <t>Ardit</t>
+  </si>
+  <si>
+    <t>Dervishi</t>
+  </si>
+  <si>
+    <t>Rr. Ismail Qemali, Tiranë</t>
+  </si>
+  <si>
+    <t>Erisa</t>
+  </si>
+  <si>
+    <t>Hoxha</t>
+  </si>
+  <si>
+    <t>Bulevardi Dëshmorët e Kombit, Tiranë</t>
+  </si>
+  <si>
+    <t>Luan</t>
+  </si>
+  <si>
+    <t>Kola</t>
+  </si>
+  <si>
+    <t>Rr. Nënë Tereza, Durrës</t>
+  </si>
+  <si>
+    <t>Blerta</t>
+  </si>
+  <si>
+    <t>Gashi</t>
+  </si>
+  <si>
+    <t>Rr. 28 Nëntori, Shkodër</t>
+  </si>
+  <si>
+    <t>Arlind</t>
+  </si>
+  <si>
+    <t>Meta</t>
+  </si>
+  <si>
+    <t>Rr. Fan Noli, Elbasan</t>
+  </si>
+  <si>
+    <t>Fjona</t>
+  </si>
+  <si>
+    <t>Vata</t>
+  </si>
+  <si>
+    <t>Lagjja 5, Korçë</t>
+  </si>
+  <si>
+    <t>Andi</t>
+  </si>
+  <si>
+    <t>Berisha</t>
+  </si>
+  <si>
+    <t>Rr. Skënderbeu, Vlorë</t>
+  </si>
+  <si>
+    <t>Bora</t>
+  </si>
+  <si>
+    <t>Reka</t>
+  </si>
+  <si>
+    <t>Rr. Iliria, Fier</t>
+  </si>
+  <si>
+    <t>Dritan</t>
+  </si>
+  <si>
+    <t>Muça</t>
+  </si>
+  <si>
+    <t>Rr. e Kavajës, Tiranë</t>
+  </si>
+  <si>
+    <t>Klea</t>
+  </si>
+  <si>
+    <t>Zeneli</t>
+  </si>
+  <si>
+    <t>Rr. Gjin Gazulli, Berat</t>
+  </si>
+  <si>
+    <t>Genc</t>
+  </si>
+  <si>
+    <t>Sula</t>
+  </si>
+  <si>
+    <t>Rr. Hysen Domi, Kukës</t>
+  </si>
+  <si>
+    <t>Silvana</t>
+  </si>
+  <si>
+    <t>Mali</t>
+  </si>
+  <si>
+    <t>Rr. Xhevdet Nepravishta, Gjirokastër</t>
+  </si>
+  <si>
+    <t>Edlir</t>
+  </si>
+  <si>
+    <t>Hysa</t>
+  </si>
+  <si>
+    <t>Rr. Petro Nini Luarasi, Tiranë</t>
+  </si>
+  <si>
+    <t>Nora</t>
+  </si>
+  <si>
+    <t>Bytyçi</t>
+  </si>
+  <si>
+    <t>Rr. e Elbasanit, Tiranë</t>
+  </si>
+  <si>
+    <t>Kristjan</t>
+  </si>
+  <si>
+    <t>Cani</t>
+  </si>
+  <si>
+    <t>Rr. 17 Shkurti, Lushnjë</t>
+  </si>
+  <si>
+    <t>Ajola</t>
+  </si>
+  <si>
+    <t>Zefi</t>
+  </si>
+  <si>
+    <t>Rr. Marigo Posio, Sarandë</t>
+  </si>
+  <si>
+    <t>Bledar</t>
+  </si>
+  <si>
+    <t>Veseli</t>
+  </si>
+  <si>
+    <t>Rr. Myslym Shyri, Tiranë</t>
+  </si>
+  <si>
+    <t>Viola</t>
+  </si>
+  <si>
+    <t>Kamberi</t>
+  </si>
+  <si>
+    <t>Rr. Pandeli Evangjeli, Pogradec</t>
+  </si>
+  <si>
+    <t>Sokol</t>
+  </si>
+  <si>
+    <t>Kodra</t>
+  </si>
+  <si>
+    <t>Lagjja “Bashkimi”, Lezhë</t>
+  </si>
+  <si>
+    <t>Elira</t>
+  </si>
+  <si>
+    <t>Demaj</t>
+  </si>
+  <si>
+    <t>Rr. Ismail Qemali, Peqin</t>
+  </si>
+  <si>
+    <t>Jonid</t>
+  </si>
+  <si>
+    <t>Hila</t>
+  </si>
+  <si>
+    <t>Rr. e Dibrës, Tiranë</t>
+  </si>
+  <si>
+    <t>Ermal</t>
+  </si>
+  <si>
+    <t>Ceka</t>
+  </si>
+  <si>
+    <t>Rr. Ali Demi, Tiranë</t>
+  </si>
+  <si>
+    <t>Valbona</t>
+  </si>
+  <si>
+    <t>Lila</t>
+  </si>
+  <si>
+    <t>Lagjja “1 Maji”, Tepelenë</t>
+  </si>
+  <si>
+    <t>Arben</t>
+  </si>
+  <si>
+    <t>Lame</t>
+  </si>
+  <si>
+    <t>Rr. Abaz Shehu, Gramsh</t>
+  </si>
+  <si>
+    <t>Lumi</t>
+  </si>
+  <si>
+    <t>rr. 101 pn</t>
+  </si>
+  <si>
+    <t>Test1</t>
+  </si>
+  <si>
+    <t>Test2</t>
+  </si>
+  <si>
+    <t>rrrr</t>
+  </si>
+  <si>
+    <t>consumerId</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>previousReading</t>
+  </si>
+  <si>
+    <t>currentReading</t>
+  </si>
+  <si>
+    <t>consumption</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>2025-06-17T06:04:14.855Z</t>
+  </si>
+  <si>
+    <t>2025-06-17T06:04:23.982Z</t>
+  </si>
+  <si>
+    <t>2025-06-17T06:04:30.886Z</t>
+  </si>
+  <si>
+    <t>2025-06-17T08:24:28.537Z</t>
+  </si>
+  <si>
+    <t>2025-06-17T08:26:12.410Z</t>
+  </si>
+  <si>
+    <t>2025-06-17T08:29:29.780Z</t>
+  </si>
+  <si>
+    <t>2025-06-17T09:06:04.199Z</t>
+  </si>
+  <si>
+    <t>2025-06-17T10:48:25.637Z</t>
+  </si>
+  <si>
+    <t>2025-06-17T10:48:32.842Z</t>
+  </si>
+  <si>
+    <t>2025-06-17T10:48:38.621Z</t>
+  </si>
+  <si>
+    <t>2025-06-17T10:48:56.958Z</t>
+  </si>
+  <si>
+    <t>2025-06-17T10:49:02.956Z</t>
+  </si>
+  <si>
+    <t>2025-06-17T10:49:09.165Z</t>
+  </si>
+  <si>
+    <t>2025-06-17T10:49:44.465Z</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>role</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>user123</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>admin123</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -67,13 +490,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -398,738 +829,741 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>id</v>
-      </c>
-      <c r="B1" t="str">
-        <v>name</v>
-      </c>
-      <c r="C1" t="str">
-        <v>surname</v>
-      </c>
-      <c r="D1" t="str">
-        <v>type</v>
-      </c>
-      <c r="E1" t="str">
-        <v>address</v>
-      </c>
-    </row>
-    <row r="2">
+    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="str">
-        <v>Ali</v>
-      </c>
-      <c r="C2" t="str">
-        <v>Munishi</v>
-      </c>
-      <c r="D2" t="str">
-        <v>Amviseri</v>
-      </c>
-      <c r="E2" t="str">
-        <v>Bogovine</v>
-      </c>
-    </row>
-    <row r="3">
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="str">
-        <v>Gzim</v>
-      </c>
-      <c r="C3" t="str">
-        <v>Ibraimi</v>
-      </c>
-      <c r="D3" t="str">
-        <v>Amviseri</v>
-      </c>
-      <c r="E3" t="str">
-        <v>Lugina</v>
-      </c>
-    </row>
-    <row r="4">
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="str">
-        <v>Sara</v>
-      </c>
-      <c r="C4" t="str">
-        <v>Hoti</v>
-      </c>
-      <c r="D4" t="str">
-        <v>Amviseri</v>
-      </c>
-      <c r="E4" t="str">
-        <v>101 pn</v>
-      </c>
-    </row>
-    <row r="5">
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="str">
-        <v>Gzim</v>
-      </c>
-      <c r="C5" t="str">
-        <v>Sali</v>
-      </c>
-      <c r="D5" t="str">
-        <v>Biznes</v>
-      </c>
-      <c r="E5" t="str">
-        <v>Lugina/13</v>
-      </c>
-    </row>
-    <row r="6">
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>18</v>
       </c>
-      <c r="B6" t="str">
-        <v>Dorart</v>
-      </c>
-      <c r="C6" t="str">
-        <v>Ibraimi</v>
-      </c>
-      <c r="D6" t="str">
-        <v>Biznes</v>
-      </c>
-      <c r="E6" t="str">
-        <v>Lugina/5</v>
-      </c>
-    </row>
-    <row r="7">
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>19</v>
       </c>
-      <c r="B7" t="str">
-        <v>Ali</v>
-      </c>
-      <c r="C7" t="str">
-        <v>Aliu</v>
-      </c>
-      <c r="D7" t="str">
-        <v>Biznes</v>
-      </c>
-      <c r="E7" t="str">
-        <v>Qender</v>
-      </c>
-    </row>
-    <row r="8">
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>20</v>
       </c>
-      <c r="B8" t="str">
-        <v xml:space="preserve">Arbresh </v>
-      </c>
-      <c r="C8" t="str">
-        <v>Ukshini</v>
-      </c>
-      <c r="D8" t="str">
-        <v>Amviseri</v>
-      </c>
-      <c r="E8" t="str">
-        <v>rr. 101 nr 12</v>
-      </c>
-    </row>
-    <row r="9">
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>21</v>
       </c>
-      <c r="B9" t="str">
-        <v>Arta</v>
-      </c>
-      <c r="C9" t="str">
-        <v>Bilalli</v>
-      </c>
-      <c r="D9" t="str">
-        <v>Amviseri</v>
-      </c>
-      <c r="E9" t="str">
-        <v>rr. 101 nr.156</v>
-      </c>
-    </row>
-    <row r="10">
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>22</v>
       </c>
-      <c r="B10" t="str">
-        <v xml:space="preserve">Artan </v>
-      </c>
-      <c r="C10" t="str">
-        <v>Sinani</v>
-      </c>
-      <c r="D10" t="str">
-        <v>Amviseri</v>
-      </c>
-      <c r="E10" t="str">
-        <v>Rruga e re pn</v>
-      </c>
-    </row>
-    <row r="11">
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>23</v>
       </c>
-      <c r="B11" t="str">
-        <v>Jasin</v>
-      </c>
-      <c r="C11" t="str">
-        <v>Jakupi</v>
-      </c>
-      <c r="D11" t="str">
-        <v>Amviseri</v>
-      </c>
-      <c r="E11" t="str">
-        <v>Mehalla e re</v>
-      </c>
-    </row>
-    <row r="12">
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>24</v>
       </c>
-      <c r="B12" t="str">
-        <v>Fisnik</v>
-      </c>
-      <c r="C12" t="str">
-        <v>Arbreshi</v>
-      </c>
-      <c r="D12" t="str">
-        <v>Amviseri</v>
-      </c>
-      <c r="E12" t="str">
-        <v>Rr. 101 nr 211</v>
-      </c>
-    </row>
-    <row r="13">
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>25</v>
       </c>
-      <c r="B13" t="str">
-        <v>Unik</v>
-      </c>
-      <c r="C13" t="str">
-        <v>Ibraimi</v>
-      </c>
-      <c r="D13" t="str">
-        <v>Amviseri</v>
-      </c>
-      <c r="E13" t="str">
-        <v>Lugina/10</v>
-      </c>
-    </row>
-    <row r="14">
+      <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>26</v>
       </c>
-      <c r="B14" t="str">
-        <v>Ajan</v>
-      </c>
-      <c r="C14" t="str">
-        <v>Aliu</v>
-      </c>
-      <c r="D14" t="str">
-        <v>Biznes</v>
-      </c>
-      <c r="E14" t="str">
-        <v>Bogovine</v>
-      </c>
-    </row>
-    <row r="15">
+      <c r="B14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>26</v>
       </c>
-      <c r="B15" t="str">
-        <v>Ardit</v>
-      </c>
-      <c r="C15" t="str">
-        <v>Dervishi</v>
-      </c>
-      <c r="D15" t="str">
-        <v>Biznes</v>
-      </c>
-      <c r="E15" t="str">
-        <v>Rr. Ismail Qemali, Tiranë</v>
-      </c>
-    </row>
-    <row r="16">
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>26</v>
       </c>
-      <c r="B16" t="str">
-        <v>Erisa</v>
-      </c>
-      <c r="C16" t="str">
-        <v>Hoxha</v>
-      </c>
-      <c r="D16" t="str">
-        <v>Amviseri</v>
-      </c>
-      <c r="E16" t="str">
-        <v>Bulevardi Dëshmorët e Kombit, Tiranë</v>
-      </c>
-    </row>
-    <row r="17">
+      <c r="B16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>26</v>
       </c>
-      <c r="B17" t="str">
-        <v>Luan</v>
-      </c>
-      <c r="C17" t="str">
-        <v>Kola</v>
-      </c>
-      <c r="D17" t="str">
-        <v>Amviseri</v>
-      </c>
-      <c r="E17" t="str">
-        <v>Rr. Nënë Tereza, Durrës</v>
-      </c>
-    </row>
-    <row r="18">
+      <c r="B17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>26</v>
       </c>
-      <c r="B18" t="str">
-        <v>Blerta</v>
-      </c>
-      <c r="C18" t="str">
-        <v>Gashi</v>
-      </c>
-      <c r="D18" t="str">
-        <v>Amviseri</v>
-      </c>
-      <c r="E18" t="str">
-        <v>Rr. 28 Nëntori, Shkodër</v>
-      </c>
-    </row>
-    <row r="19">
+      <c r="B18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>26</v>
       </c>
-      <c r="B19" t="str">
-        <v>Arlind</v>
-      </c>
-      <c r="C19" t="str">
-        <v>Meta</v>
-      </c>
-      <c r="D19" t="str">
-        <v>Amviseri</v>
-      </c>
-      <c r="E19" t="str">
-        <v>Rr. Fan Noli, Elbasan</v>
-      </c>
-    </row>
-    <row r="20">
+      <c r="B19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>26</v>
       </c>
-      <c r="B20" t="str">
-        <v>Fjona</v>
-      </c>
-      <c r="C20" t="str">
-        <v>Vata</v>
-      </c>
-      <c r="D20" t="str">
-        <v>Amviseri</v>
-      </c>
-      <c r="E20" t="str">
-        <v>Lagjja 5, Korçë</v>
-      </c>
-    </row>
-    <row r="21">
+      <c r="B20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>26</v>
       </c>
-      <c r="B21" t="str">
-        <v>Andi</v>
-      </c>
-      <c r="C21" t="str">
-        <v>Berisha</v>
-      </c>
-      <c r="D21" t="str">
-        <v>Amviseri</v>
-      </c>
-      <c r="E21" t="str">
-        <v>Rr. Skënderbeu, Vlorë</v>
-      </c>
-    </row>
-    <row r="22">
+      <c r="B21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>26</v>
       </c>
-      <c r="B22" t="str">
-        <v>Bora</v>
-      </c>
-      <c r="C22" t="str">
-        <v>Reka</v>
-      </c>
-      <c r="D22" t="str">
-        <v>Amviseri</v>
-      </c>
-      <c r="E22" t="str">
-        <v>Rr. Iliria, Fier</v>
-      </c>
-    </row>
-    <row r="23">
+      <c r="B22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>26</v>
       </c>
-      <c r="B23" t="str">
-        <v>Dritan</v>
-      </c>
-      <c r="C23" t="str">
-        <v>Muça</v>
-      </c>
-      <c r="D23" t="str">
-        <v>Biznes</v>
-      </c>
-      <c r="E23" t="str">
-        <v>Rr. e Kavajës, Tiranë</v>
-      </c>
-    </row>
-    <row r="24">
+      <c r="B23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>26</v>
       </c>
-      <c r="B24" t="str">
-        <v>Klea</v>
-      </c>
-      <c r="C24" t="str">
-        <v>Zeneli</v>
-      </c>
-      <c r="D24" t="str">
-        <v>Biznes</v>
-      </c>
-      <c r="E24" t="str">
-        <v>Rr. Gjin Gazulli, Berat</v>
-      </c>
-    </row>
-    <row r="25">
+      <c r="B24" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>26</v>
       </c>
-      <c r="B25" t="str">
-        <v>Genc</v>
-      </c>
-      <c r="C25" t="str">
-        <v>Sula</v>
-      </c>
-      <c r="D25" t="str">
-        <v>Amviseri</v>
-      </c>
-      <c r="E25" t="str">
-        <v>Rr. Hysen Domi, Kukës</v>
-      </c>
-    </row>
-    <row r="26">
+      <c r="B25" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25" t="s">
+        <v>71</v>
+      </c>
+      <c r="D25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>26</v>
       </c>
-      <c r="B26" t="str">
-        <v>Silvana</v>
-      </c>
-      <c r="C26" t="str">
-        <v>Mali</v>
-      </c>
-      <c r="D26" t="str">
-        <v>Amviseri</v>
-      </c>
-      <c r="E26" t="str">
-        <v>Rr. Xhevdet Nepravishta, Gjirokastër</v>
-      </c>
-    </row>
-    <row r="27">
+      <c r="B26" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" t="s">
+        <v>74</v>
+      </c>
+      <c r="D26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" t="str">
-        <v>Edlir</v>
-      </c>
-      <c r="C27" t="str">
-        <v>Hysa</v>
-      </c>
-      <c r="D27" t="str">
-        <v>Biznes</v>
-      </c>
-      <c r="E27" t="str">
-        <v>Rr. Petro Nini Luarasi, Tiranë</v>
-      </c>
-    </row>
-    <row r="28">
+      <c r="B27" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" t="s">
+        <v>77</v>
+      </c>
+      <c r="D27" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
-      <c r="B28" t="str">
-        <v>Nora</v>
-      </c>
-      <c r="C28" t="str">
-        <v>Bytyçi</v>
-      </c>
-      <c r="D28" t="str">
-        <v>Biznes</v>
-      </c>
-      <c r="E28" t="str">
-        <v>Rr. e Elbasanit, Tiranë</v>
-      </c>
-    </row>
-    <row r="29">
+      <c r="B28" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" t="s">
+        <v>80</v>
+      </c>
+      <c r="D28" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>26</v>
       </c>
-      <c r="B29" t="str">
-        <v>Kristjan</v>
-      </c>
-      <c r="C29" t="str">
-        <v>Cani</v>
-      </c>
-      <c r="D29" t="str">
-        <v>Biznes</v>
-      </c>
-      <c r="E29" t="str">
-        <v>Rr. 17 Shkurti, Lushnjë</v>
-      </c>
-    </row>
-    <row r="30">
+      <c r="B29" t="s">
+        <v>82</v>
+      </c>
+      <c r="C29" t="s">
+        <v>83</v>
+      </c>
+      <c r="D29" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>26</v>
       </c>
-      <c r="B30" t="str">
-        <v>Ajola</v>
-      </c>
-      <c r="C30" t="str">
-        <v>Zefi</v>
-      </c>
-      <c r="D30" t="str">
-        <v>Biznes</v>
-      </c>
-      <c r="E30" t="str">
-        <v>Rr. Marigo Posio, Sarandë</v>
-      </c>
-    </row>
-    <row r="31">
+      <c r="B30" t="s">
+        <v>85</v>
+      </c>
+      <c r="C30" t="s">
+        <v>86</v>
+      </c>
+      <c r="D30" t="s">
+        <v>16</v>
+      </c>
+      <c r="E30" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>26</v>
       </c>
-      <c r="B31" t="str">
-        <v>Bledar</v>
-      </c>
-      <c r="C31" t="str">
-        <v>Veseli</v>
-      </c>
-      <c r="D31" t="str">
-        <v>Biznes</v>
-      </c>
-      <c r="E31" t="str">
-        <v>Rr. Myslym Shyri, Tiranë</v>
-      </c>
-    </row>
-    <row r="32">
+      <c r="B31" t="s">
+        <v>88</v>
+      </c>
+      <c r="C31" t="s">
+        <v>89</v>
+      </c>
+      <c r="D31" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>26</v>
       </c>
-      <c r="B32" t="str">
-        <v>Viola</v>
-      </c>
-      <c r="C32" t="str">
-        <v>Kamberi</v>
-      </c>
-      <c r="D32" t="str">
-        <v>Amviseri</v>
-      </c>
-      <c r="E32" t="str">
-        <v>Rr. Pandeli Evangjeli, Pogradec</v>
-      </c>
-    </row>
-    <row r="33">
+      <c r="B32" t="s">
+        <v>91</v>
+      </c>
+      <c r="C32" t="s">
+        <v>92</v>
+      </c>
+      <c r="D32" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>26</v>
       </c>
-      <c r="B33" t="str">
-        <v>Sokol</v>
-      </c>
-      <c r="C33" t="str">
-        <v>Kodra</v>
-      </c>
-      <c r="D33" t="str">
-        <v>Amviseri</v>
-      </c>
-      <c r="E33" t="str">
-        <v>Lagjja “Bashkimi”, Lezhë</v>
-      </c>
-    </row>
-    <row r="34">
+      <c r="B33" t="s">
+        <v>94</v>
+      </c>
+      <c r="C33" t="s">
+        <v>95</v>
+      </c>
+      <c r="D33" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>26</v>
       </c>
-      <c r="B34" t="str">
-        <v>Elira</v>
-      </c>
-      <c r="C34" t="str">
-        <v>Demaj</v>
-      </c>
-      <c r="D34" t="str">
-        <v>Amviseri</v>
-      </c>
-      <c r="E34" t="str">
-        <v>Rr. Ismail Qemali, Peqin</v>
-      </c>
-    </row>
-    <row r="35">
+      <c r="B34" t="s">
+        <v>97</v>
+      </c>
+      <c r="C34" t="s">
+        <v>98</v>
+      </c>
+      <c r="D34" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>26</v>
       </c>
-      <c r="B35" t="str">
-        <v>Jonid</v>
-      </c>
-      <c r="C35" t="str">
-        <v>Hila</v>
-      </c>
-      <c r="D35" t="str">
-        <v>Amviseri</v>
-      </c>
-      <c r="E35" t="str">
-        <v>Rr. e Dibrës, Tiranë</v>
-      </c>
-    </row>
-    <row r="36">
+      <c r="B35" t="s">
+        <v>100</v>
+      </c>
+      <c r="C35" t="s">
+        <v>101</v>
+      </c>
+      <c r="D35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>26</v>
       </c>
-      <c r="B36" t="str">
-        <v>Ermal</v>
-      </c>
-      <c r="C36" t="str">
-        <v>Ceka</v>
-      </c>
-      <c r="D36" t="str">
-        <v>Amviseri</v>
-      </c>
-      <c r="E36" t="str">
-        <v>Rr. Ali Demi, Tiranë</v>
-      </c>
-    </row>
-    <row r="37">
+      <c r="B36" t="s">
+        <v>103</v>
+      </c>
+      <c r="C36" t="s">
+        <v>104</v>
+      </c>
+      <c r="D36" t="s">
+        <v>7</v>
+      </c>
+      <c r="E36" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>26</v>
       </c>
-      <c r="B37" t="str">
-        <v>Valbona</v>
-      </c>
-      <c r="C37" t="str">
-        <v>Lila</v>
-      </c>
-      <c r="D37" t="str">
-        <v>Amviseri</v>
-      </c>
-      <c r="E37" t="str">
-        <v>Lagjja “1 Maji”, Tepelenë</v>
-      </c>
-    </row>
-    <row r="38">
+      <c r="B37" t="s">
+        <v>106</v>
+      </c>
+      <c r="C37" t="s">
+        <v>107</v>
+      </c>
+      <c r="D37" t="s">
+        <v>7</v>
+      </c>
+      <c r="E37" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>26</v>
       </c>
-      <c r="B38" t="str">
-        <v>Arben</v>
-      </c>
-      <c r="C38" t="str">
-        <v>Lame</v>
-      </c>
-      <c r="D38" t="str">
-        <v>Biznes</v>
-      </c>
-      <c r="E38" t="str">
-        <v>Rr. Abaz Shehu, Gramsh</v>
-      </c>
-    </row>
-    <row r="39">
+      <c r="B38" t="s">
+        <v>109</v>
+      </c>
+      <c r="C38" t="s">
+        <v>110</v>
+      </c>
+      <c r="D38" t="s">
+        <v>16</v>
+      </c>
+      <c r="E38" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>27</v>
       </c>
-      <c r="B39" t="str">
-        <v>Luan</v>
-      </c>
-      <c r="C39" t="str">
-        <v>Lumi</v>
-      </c>
-      <c r="D39" t="str">
-        <v>Amviseri</v>
-      </c>
-      <c r="E39" t="str">
-        <v>rr. 101 pn</v>
-      </c>
-    </row>
-    <row r="40">
+      <c r="B39" t="s">
+        <v>46</v>
+      </c>
+      <c r="C39" t="s">
+        <v>112</v>
+      </c>
+      <c r="D39" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>28</v>
       </c>
-      <c r="B40" t="str">
-        <v>Test1</v>
-      </c>
-      <c r="C40" t="str">
-        <v>Test2</v>
-      </c>
-      <c r="D40" t="str">
-        <v>Amviseri</v>
-      </c>
-      <c r="E40" t="str">
-        <v>rrrr</v>
+      <c r="B40" t="s">
+        <v>114</v>
+      </c>
+      <c r="C40" t="s">
+        <v>115</v>
+      </c>
+      <c r="D40" t="s">
+        <v>7</v>
+      </c>
+      <c r="E40" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E40"/>
+    <ignoredError sqref="A1:E40" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>id</v>
-      </c>
-      <c r="B1" t="str">
-        <v>consumerId</v>
-      </c>
-      <c r="C1" t="str">
-        <v>date</v>
-      </c>
-      <c r="D1" t="str">
-        <v>previousReading</v>
-      </c>
-      <c r="E1" t="str">
-        <v>currentReading</v>
-      </c>
-      <c r="F1" t="str">
-        <v>consumption</v>
-      </c>
-      <c r="G1" t="str">
-        <v>total</v>
-      </c>
-    </row>
-    <row r="2">
+    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
         <v>2</v>
       </c>
-      <c r="C2" t="str">
-        <v>2025-06-17T06:04:14.855Z</v>
+      <c r="C2" t="s">
+        <v>123</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1144,15 +1578,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" t="str">
-        <v>2025-06-17T06:04:23.982Z</v>
+      <c r="C3" t="s">
+        <v>124</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1167,15 +1601,15 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
         <v>19</v>
       </c>
-      <c r="C4" t="str">
-        <v>2025-06-17T06:04:30.886Z</v>
+      <c r="C4" t="s">
+        <v>125</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1187,18 +1621,18 @@
         <v>63</v>
       </c>
       <c r="G4">
-        <v>75.6</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>75.599999999999994</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
-      <c r="C5" t="str">
-        <v>2025-06-17T08:24:28.537Z</v>
+      <c r="C5" t="s">
+        <v>126</v>
       </c>
       <c r="D5">
         <v>100</v>
@@ -1213,15 +1647,15 @@
         <v>26.5</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
         <v>19</v>
       </c>
-      <c r="C6" t="str">
-        <v>2025-06-17T08:26:12.410Z</v>
+      <c r="C6" t="s">
+        <v>127</v>
       </c>
       <c r="D6">
         <v>63</v>
@@ -1236,15 +1670,15 @@
         <v>31.2</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
         <v>21</v>
       </c>
-      <c r="C7" t="str">
-        <v>2025-06-17T08:29:29.780Z</v>
+      <c r="C7" t="s">
+        <v>128</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1259,15 +1693,15 @@
         <v>99.5</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
         <v>2</v>
       </c>
-      <c r="C8" t="str">
-        <v>2025-06-17T09:06:04.199Z</v>
+      <c r="C8" t="s">
+        <v>129</v>
       </c>
       <c r="D8">
         <v>153</v>
@@ -1282,15 +1716,15 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
         <v>3</v>
       </c>
-      <c r="C9" t="str">
-        <v>2025-06-17T10:48:25.637Z</v>
+      <c r="C9" t="s">
+        <v>130</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1305,15 +1739,15 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
         <v>4</v>
       </c>
-      <c r="C10" t="str">
-        <v>2025-06-17T10:48:32.842Z</v>
+      <c r="C10" t="s">
+        <v>131</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1328,15 +1762,15 @@
         <v>62.4</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
         <v>25</v>
       </c>
-      <c r="C11" t="str">
-        <v>2025-06-17T10:48:38.621Z</v>
+      <c r="C11" t="s">
+        <v>132</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1351,15 +1785,15 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
         <v>21</v>
       </c>
-      <c r="C12" t="str">
-        <v>2025-06-17T10:48:56.958Z</v>
+      <c r="C12" t="s">
+        <v>133</v>
       </c>
       <c r="D12">
         <v>199</v>
@@ -1374,15 +1808,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
         <v>22</v>
       </c>
-      <c r="C13" t="str">
-        <v>2025-06-17T10:49:02.956Z</v>
+      <c r="C13" t="s">
+        <v>134</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -1397,15 +1831,15 @@
         <v>31.5</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
         <v>26</v>
       </c>
-      <c r="C14" t="str">
-        <v>2025-06-17T10:49:09.165Z</v>
+      <c r="C14" t="s">
+        <v>135</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -1420,15 +1854,15 @@
         <v>67.2</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
         <v>26</v>
       </c>
-      <c r="C15" t="str">
-        <v>2025-06-17T10:49:44.465Z</v>
+      <c r="C15" t="s">
+        <v>136</v>
       </c>
       <c r="D15">
         <v>56</v>
@@ -1444,65 +1878,67 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G15"/>
+    <ignoredError sqref="A1:G15" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>id</v>
-      </c>
-      <c r="B1" t="str">
-        <v>username</v>
-      </c>
-      <c r="C1" t="str">
-        <v>password</v>
-      </c>
-      <c r="D1" t="str">
-        <v>role</v>
-      </c>
-    </row>
-    <row r="2">
+    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="str">
-        <v>user</v>
-      </c>
-      <c r="C2" t="str">
-        <v>user123</v>
-      </c>
-      <c r="D2" t="str">
-        <v>user</v>
-      </c>
-    </row>
-    <row r="3">
+      <c r="B2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="str">
-        <v>admin</v>
-      </c>
-      <c r="C3" t="str">
-        <v>admin123</v>
-      </c>
-      <c r="D3" t="str">
-        <v>admin</v>
+      <c r="B3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D3" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D3"/>
+    <ignoredError sqref="A1:D3" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/backend/data.xlsx
+++ b/backend/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AliMunishiApp\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCC83C65-B191-45F0-9F67-1727AAA1BD5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DAB401E-02BA-4FCE-9816-274DBAF7785C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="consumers" sheetId="1" r:id="rId1"/>
@@ -832,11 +832,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:A40"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -853,7 +855,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -870,7 +872,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -887,7 +889,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -904,7 +906,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -921,7 +923,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>18</v>
       </c>
@@ -938,7 +940,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>19</v>
       </c>
@@ -955,7 +957,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>20</v>
       </c>
@@ -972,7 +974,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>21</v>
       </c>
@@ -989,7 +991,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>22</v>
       </c>
@@ -1006,7 +1008,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>23</v>
       </c>
@@ -1023,7 +1025,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>24</v>
       </c>
@@ -1040,7 +1042,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>25</v>
       </c>
@@ -1057,7 +1059,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>26</v>
       </c>
@@ -1074,9 +1076,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
@@ -1091,9 +1093,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s">
         <v>43</v>
@@ -1108,9 +1110,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B17" t="s">
         <v>46</v>
@@ -1125,9 +1127,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B18" t="s">
         <v>49</v>
@@ -1142,9 +1144,9 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B19" t="s">
         <v>52</v>
@@ -1159,9 +1161,9 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B20" t="s">
         <v>55</v>
@@ -1176,9 +1178,9 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B21" t="s">
         <v>58</v>
@@ -1193,9 +1195,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B22" t="s">
         <v>61</v>
@@ -1210,9 +1212,9 @@
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B23" t="s">
         <v>64</v>
@@ -1227,9 +1229,9 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B24" t="s">
         <v>67</v>
@@ -1244,9 +1246,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B25" t="s">
         <v>70</v>
@@ -1261,9 +1263,9 @@
         <v>72</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="B26" t="s">
         <v>73</v>
@@ -1278,9 +1280,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="B27" t="s">
         <v>76</v>
@@ -1295,9 +1297,9 @@
         <v>78</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="B28" t="s">
         <v>79</v>
@@ -1312,9 +1314,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="B29" t="s">
         <v>82</v>
@@ -1329,9 +1331,9 @@
         <v>84</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="B30" t="s">
         <v>85</v>
@@ -1346,9 +1348,9 @@
         <v>87</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="B31" t="s">
         <v>88</v>
@@ -1363,9 +1365,9 @@
         <v>90</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="B32" t="s">
         <v>91</v>
@@ -1380,9 +1382,9 @@
         <v>93</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="B33" t="s">
         <v>94</v>
@@ -1397,9 +1399,9 @@
         <v>96</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="B34" t="s">
         <v>97</v>
@@ -1414,9 +1416,9 @@
         <v>99</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="B35" t="s">
         <v>100</v>
@@ -1431,9 +1433,9 @@
         <v>102</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="B36" t="s">
         <v>103</v>
@@ -1448,9 +1450,9 @@
         <v>105</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="B37" t="s">
         <v>106</v>
@@ -1465,9 +1467,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="B38" t="s">
         <v>109</v>
@@ -1482,9 +1484,9 @@
         <v>111</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="B39" t="s">
         <v>46</v>
@@ -1499,9 +1501,9 @@
         <v>113</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="B40" t="s">
         <v>114</v>
@@ -1519,7 +1521,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:E40" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:E13 B14:E40" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1530,9 +1532,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1555,7 +1561,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1578,7 +1584,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1601,7 +1607,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1624,7 +1630,7 @@
         <v>75.599999999999994</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1647,7 +1653,7 @@
         <v>26.5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1670,7 +1676,7 @@
         <v>31.2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1693,7 +1699,7 @@
         <v>99.5</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1716,7 +1722,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1739,7 +1745,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1762,7 +1768,7 @@
         <v>62.4</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1785,7 +1791,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1808,7 +1814,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1831,7 +1837,7 @@
         <v>31.5</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1854,7 +1860,7 @@
         <v>67.2</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1889,11 +1895,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1907,7 +1913,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1921,7 +1927,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>

--- a/backend/data.xlsx
+++ b/backend/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AliMunishiApp\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DAB401E-02BA-4FCE-9816-274DBAF7785C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FBB7936-614A-4A60-9FAD-BCB6770A9AA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="consumers" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="146">
   <si>
     <t>id</t>
   </si>
@@ -366,15 +366,6 @@
     <t>rr. 101 pn</t>
   </si>
   <si>
-    <t>Test1</t>
-  </si>
-  <si>
-    <t>Test2</t>
-  </si>
-  <si>
-    <t>rrrr</t>
-  </si>
-  <si>
     <t>consumerId</t>
   </si>
   <si>
@@ -454,6 +445,21 @@
   </si>
   <si>
     <t>admin123</t>
+  </si>
+  <si>
+    <t>Arbnor</t>
+  </si>
+  <si>
+    <t>Noli</t>
+  </si>
+  <si>
+    <t>Rruga e re 13/1</t>
+  </si>
+  <si>
+    <t>tester</t>
+  </si>
+  <si>
+    <t>pass1234</t>
   </si>
 </sst>
 </file>
@@ -832,8 +838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:A40"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1506,22 +1512,22 @@
         <v>52</v>
       </c>
       <c r="B40" t="s">
-        <v>114</v>
+        <v>141</v>
       </c>
       <c r="C40" t="s">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="D40" t="s">
         <v>7</v>
       </c>
       <c r="E40" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:E13 B14:E40" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:E13 B14:E39 D40" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1543,22 +1549,22 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E1" t="s">
         <v>117</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>118</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>119</v>
-      </c>
-      <c r="E1" t="s">
-        <v>120</v>
-      </c>
-      <c r="F1" t="s">
-        <v>121</v>
-      </c>
-      <c r="G1" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1569,7 +1575,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1592,7 +1598,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1615,7 +1621,7 @@
         <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1638,7 +1644,7 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D5">
         <v>100</v>
@@ -1661,7 +1667,7 @@
         <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D6">
         <v>63</v>
@@ -1684,7 +1690,7 @@
         <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1707,7 +1713,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D8">
         <v>153</v>
@@ -1730,7 +1736,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1753,7 +1759,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1776,7 +1782,7 @@
         <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1799,7 +1805,7 @@
         <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D12">
         <v>199</v>
@@ -1822,7 +1828,7 @@
         <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -1845,7 +1851,7 @@
         <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -1868,7 +1874,7 @@
         <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D15">
         <v>56</v>
@@ -1893,9 +1899,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -1904,13 +1912,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1918,13 +1926,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1932,13 +1940,24 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D3" t="s">
-        <v>142</v>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C4" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>
